--- a/bb_data.xlsx
+++ b/bb_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f930c902e52f4ef/Pulpit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f930c902e52f4ef/Pulpit/RR_assignement8_Ferens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6380185-C4AC-4AFE-98E8-E8F35290BDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{C6380185-C4AC-4AFE-98E8-E8F35290BDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3620FF75-3C1E-49CD-968E-A60E1244CB3D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{46F8DEEC-5845-4BF5-B288-03A18EB0A603}"/>
   </bookViews>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="285">
   <si>
     <t>No. overall</t>
   </si>
@@ -962,12 +962,6 @@
   </si>
   <si>
     <t>Season</t>
-  </si>
-  <si>
-    <t>5 part one</t>
-  </si>
-  <si>
-    <t>5 part two</t>
   </si>
 </sst>
 </file>
@@ -1011,13 +1005,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1027,7 +1020,6 @@
   <dxfs count="7">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1043,6 +1035,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1084,13 +1077,13 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{02A5F3D4-D3B0-4D1A-BCAA-20E15F906DF7}" name="Season_1__2008__edit7" displayName="Season_1__2008__edit7" ref="A1:G63" tableType="queryTable" totalsRowShown="0">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{21C02FF8-0F93-4AF5-A6C7-E4FD680D98D8}" uniqueName="1" name="No. overall" queryTableFieldId="1" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{29E3CA86-EE7E-44F6-8D30-EEBDD38BFEBB}" uniqueName="2" name="Season" queryTableFieldId="2" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{CF1FF67D-342F-409A-B88E-D8BF056A8306}" uniqueName="3" name="Title" queryTableFieldId="3" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{2320ADAE-D5F2-4E97-B9B8-8F8C05A91C64}" uniqueName="4" name="Directed by" queryTableFieldId="4" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{FB27B9A0-1F7B-440A-80A2-9E3C5D88FC8D}" uniqueName="5" name="Written by" queryTableFieldId="5" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{E8C09A82-5F3E-4CD8-92A3-4D1767BE40E4}" uniqueName="6" name="Original air date" queryTableFieldId="6" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{29F16599-1A89-4F74-A15E-899C45A107BD}" uniqueName="7" name="U.S. viewers (millions)" queryTableFieldId="7" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{21C02FF8-0F93-4AF5-A6C7-E4FD680D98D8}" uniqueName="1" name="No. overall" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{29E3CA86-EE7E-44F6-8D30-EEBDD38BFEBB}" uniqueName="2" name="Season" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{CF1FF67D-342F-409A-B88E-D8BF056A8306}" uniqueName="3" name="Title" queryTableFieldId="3" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{2320ADAE-D5F2-4E97-B9B8-8F8C05A91C64}" uniqueName="4" name="Directed by" queryTableFieldId="4" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{FB27B9A0-1F7B-440A-80A2-9E3C5D88FC8D}" uniqueName="5" name="Written by" queryTableFieldId="5" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{E8C09A82-5F3E-4CD8-92A3-4D1767BE40E4}" uniqueName="6" name="Original air date" queryTableFieldId="6" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{29F16599-1A89-4F74-A15E-899C45A107BD}" uniqueName="7" name="U.S. viewers (millions)" queryTableFieldId="7" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1415,14 +1408,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643F738B-4088-45DF-9AC4-9BCF867D752C}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
@@ -1434,7 +1427,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C1" t="s">
@@ -1454,1428 +1447,1428 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>2</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>2</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>2</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>2</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>2</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>89</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>2</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>93</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>94</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>2</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>2</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>2</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>105</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>3</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" t="s">
         <v>108</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>110</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>3</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" t="s">
         <v>112</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>3</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" t="s">
         <v>116</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>3</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>119</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>120</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" t="s">
         <v>121</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>123</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>3</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>124</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" t="s">
         <v>125</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>127</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>3</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>128</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>79</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" t="s">
         <v>129</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>131</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>3</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>132</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>133</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" t="s">
         <v>134</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>136</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>3</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>137</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>101</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>138</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" t="s">
         <v>139</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>141</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>3</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>142</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>143</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
         <v>144</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" t="s">
         <v>145</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>146</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>3</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>147</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>148</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>149</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" t="s">
         <v>150</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>151</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>3</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>152</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>153</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" t="s">
         <v>154</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>156</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>3</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>157</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>158</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" t="s">
         <v>159</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>160</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>3</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>161</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" t="s">
         <v>162</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>164</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>4</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>165</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" t="s">
         <v>166</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>4</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>169</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>88</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" t="s">
         <v>170</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>4</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>173</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>174</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" t="s">
         <v>62</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" t="s">
         <v>175</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>177</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>4</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>178</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" t="s">
         <v>68</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" t="s">
         <v>179</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>181</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>4</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>182</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s">
         <v>88</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" t="s">
         <v>133</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" t="s">
         <v>183</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>185</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>4</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>186</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s">
         <v>143</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" t="s">
         <v>138</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" t="s">
         <v>187</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>189</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>4</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>190</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" t="s">
         <v>40</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" t="s">
         <v>191</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>193</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>4</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
         <v>194</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" t="s">
         <v>67</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" t="s">
         <v>195</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" t="s">
         <v>196</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>198</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>4</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
         <v>199</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" t="s">
         <v>56</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" t="s">
         <v>200</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" t="s">
         <v>201</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>203</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>4</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
         <v>204</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" t="s">
         <v>88</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" t="s">
         <v>205</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" t="s">
         <v>206</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>208</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <v>4</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" t="s">
         <v>209</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" t="s">
         <v>120</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" t="s">
         <v>210</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" t="s">
         <v>211</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>212</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="1">
         <v>4</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
         <v>213</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" t="s">
         <v>214</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" t="s">
         <v>215</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>217</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="1">
         <v>4</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
         <v>218</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" t="s">
         <v>219</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>221</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="B48" s="2">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
         <v>222</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" t="s">
         <v>143</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" t="s">
         <v>8</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" t="s">
         <v>223</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>225</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="B49" s="2">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
         <v>226</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" t="s">
         <v>88</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" t="s">
         <v>227</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>229</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="B50" s="2">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
         <v>230</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" t="s">
         <v>40</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" t="s">
         <v>231</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>233</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="B51" s="2">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
         <v>234</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" t="s">
         <v>148</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" t="s">
         <v>62</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" t="s">
         <v>235</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>236</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="B52" s="2">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
         <v>237</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" t="s">
         <v>34</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" t="s">
         <v>34</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" t="s">
         <v>238</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>240</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="B53" s="2">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
         <v>241</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" t="s">
         <v>101</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" t="s">
         <v>138</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" t="s">
         <v>242</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>244</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="B54" s="2">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
         <v>245</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" t="s">
         <v>133</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" t="s">
         <v>133</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" t="s">
         <v>246</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>248</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="B55" s="2">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
         <v>249</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" t="s">
         <v>88</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" t="s">
         <v>68</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" t="s">
         <v>250</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>252</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="B56" s="2">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
         <v>253</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" t="s">
         <v>45</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" t="s">
         <v>40</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" t="s">
         <v>254</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G56" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>256</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="B57" s="2">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
         <v>257</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" t="s">
         <v>88</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" t="s">
         <v>133</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" t="s">
         <v>258</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>260</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="B58" s="2">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
         <v>261</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" t="s">
         <v>143</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" t="s">
         <v>138</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" t="s">
         <v>262</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G58" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>264</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="B59" s="2">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
         <v>265</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" t="s">
         <v>62</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" t="s">
         <v>62</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" t="s">
         <v>266</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G59" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>268</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="B60" s="2">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
         <v>269</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" t="s">
         <v>88</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" t="s">
         <v>34</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" t="s">
         <v>270</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>272</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="B61" s="2">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
         <v>273</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" t="s">
         <v>148</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" t="s">
         <v>68</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" t="s">
         <v>274</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>276</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="B62" s="2">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
         <v>277</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" t="s">
         <v>40</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" t="s">
         <v>40</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" t="s">
         <v>278</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G62" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="A63" t="s">
         <v>280</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C63" s="1" t="s">
+      <c r="B63" s="2">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
         <v>281</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" t="s">
         <v>8</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" t="s">
         <v>282</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G63" t="s">
         <v>283</v>
       </c>
     </row>
